--- a/costben.xlsx
+++ b/costben.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Video Editing\0063 Solar iboost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\diverter\Diverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFAE618-07F0-408B-A9C9-951FE829C3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9798CE0-EDD3-4E19-BC89-0BAF54903281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{54332720-7196-4076-8558-7DFDF859265D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54332720-7196-4076-8558-7DFDF859265D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost-ben calc" sheetId="2" r:id="rId1"/>
@@ -263,8 +263,8 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.0000_-;\-&quot;£&quot;* #,##0.0000_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -822,9 +822,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="7" applyBorder="1"/>
@@ -840,7 +837,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="20" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="20" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="7" applyBorder="1"/>
@@ -849,10 +846,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="7" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -871,17 +864,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="5" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="7" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="7" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,6 +891,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,15 +907,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1279,17 +1279,17 @@
     </row>
     <row r="3" spans="3:11" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="G7" s="3"/>
@@ -1299,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="43">
+      <c r="G8" s="41">
         <v>350</v>
       </c>
       <c r="H8" s="7"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="43">
+      <c r="G9" s="41">
         <v>0</v>
       </c>
       <c r="H9" s="7"/>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="43">
+      <c r="G10" s="41">
         <v>0</v>
       </c>
       <c r="H10" s="7"/>
@@ -1331,14 +1331,14 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="G12" s="20"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="53">
+      <c r="G13" s="50">
         <v>10</v>
       </c>
       <c r="H13" s="7"/>
@@ -1351,17 +1351,17 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="G16" s="3"/>
@@ -1371,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="42" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="7"/>
@@ -1388,7 +1388,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="42" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="7"/>
@@ -1397,7 +1397,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="3"/>
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="44">
+      <c r="G21" s="42">
         <v>15.12</v>
       </c>
       <c r="H21" s="7" t="str">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I21" s="3">
         <f>IF(H21="meters cubed",G21*G22,G21)</f>
-        <v>498.96</v>
+        <v>171.80351999999999</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>13</v>
@@ -1430,17 +1430,18 @@
         <v>38</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="44">
-        <v>33</v>
-      </c>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="42">
+        <f>1*40*1.02264/3.6</f>
+        <v>11.362666666666666</v>
+      </c>
+      <c r="H22" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.35">
@@ -1448,21 +1449,21 @@
         <v>39</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="46">
+      <c r="G23" s="44">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24" t="s">
+      <c r="H23" s="43"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="40">
         <v>35.5</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="24">
         <f>K23*0.0283168</f>
         <v>1.0052464000000001</v>
       </c>
@@ -1473,15 +1474,15 @@
         <v>8</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="47">
+      <c r="G24" s="45">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.35">
@@ -1490,7 +1491,7 @@
       </c>
       <c r="G25" s="5">
         <f>I21*G24*IF(G17="Per Day",365,IF(G17="Per Week",52,IF(G17="Per Month",12,1)))</f>
-        <v>187.40937600000001</v>
+        <v>64.529402112</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1499,17 +1500,17 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="44">
+      <c r="G27" s="42">
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1521,7 +1522,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="43">
+      <c r="G28" s="41">
         <v>0.05</v>
       </c>
       <c r="H28" s="7"/>
@@ -1541,7 +1542,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="3"/>
@@ -1551,7 +1552,7 @@
         <v>42</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="44">
+      <c r="G32" s="42">
         <v>0</v>
       </c>
       <c r="H32" s="7">
@@ -1566,12 +1567,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="44">
+      <c r="G33" s="42">
         <v>10.35</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -1586,7 +1587,7 @@
         <v>39</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="46">
+      <c r="G34" s="44">
         <v>0.6</v>
       </c>
       <c r="H34" s="7"/>
@@ -1596,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="47">
+      <c r="G35" s="45">
         <v>1.0609999999999999</v>
       </c>
       <c r="H35" s="7"/>
@@ -1615,27 +1616,27 @@
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="38"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="37"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.35">
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="33" t="s">
+      <c r="I37" s="34"/>
+      <c r="J37" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="41">
+      <c r="K37" s="54">
         <v>3.2</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="33">
         <f>K37*3.78541</f>
         <v>12.113312000000001</v>
       </c>
@@ -1647,18 +1648,18 @@
       </c>
       <c r="G38" s="5">
         <f>G36+G29+G25</f>
-        <v>187.40937600000001</v>
+        <v>64.529402112</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="33" t="s">
+      <c r="I38" s="34"/>
+      <c r="J38" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="K38" s="41"/>
-      <c r="L38" s="33" t="s">
+      <c r="K38" s="54"/>
+      <c r="L38" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="33">
         <f>K37*4.54608785742778</f>
         <v>14.547481143768898</v>
       </c>
@@ -1666,13 +1667,13 @@
     </row>
     <row r="39" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D39" s="2"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.35">
@@ -1684,17 +1685,17 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D43" s="1" t="s">
@@ -1702,7 +1703,7 @@
       </c>
       <c r="G43" s="1">
         <f>I21*J17*G23</f>
-        <v>3353.0111999999999</v>
+        <v>1154.5196544000003</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.35">
@@ -1718,7 +1719,7 @@
       <c r="D45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="38">
         <f>I32*G34*J17</f>
         <v>0</v>
       </c>
@@ -1727,9 +1728,9 @@
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="G46" s="40">
+      <c r="G46" s="39">
         <f>SUM(G43:G45)</f>
-        <v>3353.0111999999999</v>
+        <v>1154.5196544000003</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.35">
@@ -1737,7 +1738,7 @@
         <v>24</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="47">
+      <c r="G47" s="45">
         <v>0</v>
       </c>
       <c r="H47" s="7"/>
@@ -1746,30 +1747,30 @@
       <c r="D48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="47">
         <f>G47*SUM(G43:G45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="44">
+      <c r="G53" s="42">
         <v>1000</v>
       </c>
       <c r="H53" s="7"/>
@@ -1779,7 +1780,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="52">
+      <c r="G54" s="49">
         <v>0.7</v>
       </c>
       <c r="H54" s="7" t="s">
@@ -1790,9 +1791,9 @@
       <c r="D55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="48">
         <f>MIN(G46,G53*G54)/G46</f>
-        <v>0.208767569878681</v>
+        <v>0.6063127616166808</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -1812,9 +1813,9 @@
       <c r="F57" s="10"/>
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="16"/>
@@ -1827,12 +1828,12 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12">
         <f>G55*G38</f>
-        <v>39.125000000000007</v>
+        <v>39.124999999999993</v>
       </c>
       <c r="H58" s="10"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="16"/>
@@ -1848,9 +1849,9 @@
         <v>0</v>
       </c>
       <c r="H59" s="10"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
     </row>
     <row r="60" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
@@ -1863,7 +1864,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12">
         <f>G58-G59</f>
-        <v>39.125000000000007</v>
+        <v>39.124999999999993</v>
       </c>
       <c r="H60" s="55" t="str">
         <f>IF(G62&lt;0,"YOU ARE LOSING MONEY","")</f>
@@ -1871,7 +1872,7 @@
       </c>
       <c r="I60" s="56"/>
       <c r="J60" s="57"/>
-      <c r="K60" s="54"/>
+      <c r="K60" s="51"/>
     </row>
     <row r="61" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16"/>
@@ -1884,12 +1885,12 @@
       <c r="F61" s="10"/>
       <c r="G61" s="13">
         <f>G11/G60</f>
-        <v>8.9456869009584654</v>
-      </c>
-      <c r="H61" s="61"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="54"/>
+        <v>8.9456869009584672</v>
+      </c>
+      <c r="H61" s="58"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="51"/>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
@@ -1902,12 +1903,12 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12">
         <f>G60*G13-G11</f>
-        <v>41.250000000000057</v>
-      </c>
-      <c r="H62" s="58"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="54"/>
+        <v>41.249999999999943</v>
+      </c>
+      <c r="H62" s="61"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="51"/>
     </row>
     <row r="63" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16"/>
@@ -1918,9 +1919,9 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
       <c r="H63" s="10"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
     </row>
     <row r="64" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C64" s="4"/>
@@ -1931,26 +1932,26 @@
       <c r="H64" s="4"/>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E67" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="44">
+      <c r="G67" s="42">
         <v>15.6</v>
       </c>
       <c r="H67" s="7"/>
@@ -1960,7 +1961,7 @@
         <v>37</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="G68" s="44">
+      <c r="G68" s="42">
         <v>28</v>
       </c>
       <c r="H68" s="7"/>
